--- a/posesiones/1381269.xlsx
+++ b/posesiones/1381269.xlsx
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>6</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>25</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>14</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>14</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>7</v>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>24</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>17</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>6</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>23</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>18</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>6</v>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>8</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>20</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>23</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>12</v>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>20</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>27</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>20</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>6</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>21</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>25</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>13</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>22</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>20</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5655,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>13</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>16</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>26</v>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>22</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6534,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R98">
         <v>19</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R102">
         <v>13</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>21</v>
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R104">
         <v>22</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R106">
         <v>4</v>
@@ -6984,10 +6984,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7310,10 +7310,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>14</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>18</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7569,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R119">
         <v>14</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R121">
         <v>8</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7872,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>26</v>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R127">
         <v>22</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8072,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R129">
         <v>5</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R134">
         <v>6</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8504,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R138">
         <v>30</v>
@@ -8557,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>25</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R141">
         <v>17</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R144">
         <v>15</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R157">
         <v>16</v>
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R158">
         <v>7</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R160">
         <v>8</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R166">
         <v>21</v>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R167">
         <v>23</v>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R171">
         <v>0</v>
@@ -10180,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R172">
         <v>19</v>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R174">
         <v>16</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>19</v>
@@ -10480,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R178">
         <v>18</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R180">
         <v>17</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R181">
         <v>17</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10739,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R183">
         <v>15</v>
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10883,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10977,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R189">
         <v>17</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R191">
         <v>9</v>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R194">
         <v>10</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11518,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R199">
         <v>13</v>
@@ -11571,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R200">
         <v>22</v>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R205">
         <v>20</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11956,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12006,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R209">
         <v>18</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R211">
         <v>25</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12212,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R213">
         <v>18</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12547,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R220">
         <v>18</v>
@@ -12600,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R221">
         <v>14</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12741,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12838,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R226">
         <v>15</v>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12941,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R228">
         <v>4</v>
@@ -12985,10 +12985,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13311,10 +13311,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13364,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R237">
         <v>22</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13467,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R239">
         <v>18</v>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13614,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R242">
         <v>34</v>
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13855,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>36</v>
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R250">
         <v>7</v>
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R252">
         <v>7</v>
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R254">
         <v>7</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14311,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R256">
         <v>12</v>
@@ -14364,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14414,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R258">
         <v>11</v>
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14514,7 +14514,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R260">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14617,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R262">
         <v>6</v>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R264">
         <v>7</v>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14817,7 +14817,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R266">
         <v>26</v>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14920,7 +14920,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R268">
         <v>6</v>
@@ -14973,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R269">
         <v>19</v>
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15073,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R271">
         <v>19</v>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15173,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R273">
         <v>20</v>
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15270,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R278">
         <v>24</v>
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15517,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R280">
         <v>4</v>
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15617,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R282">
         <v>4</v>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15996,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16187,7 +16187,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R294">
         <v>42</v>
@@ -16240,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16290,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R296">
         <v>11</v>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R298">
         <v>18</v>
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R301">
         <v>0</v>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16728,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R305">
         <v>20</v>
@@ -16781,7 +16781,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R306">
         <v>12</v>
@@ -16834,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16884,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R308">
         <v>10</v>
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16984,7 +16984,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R310">
         <v>4</v>
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>25</v>
@@ -17090,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R313">
         <v>8</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17243,7 +17243,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>15</v>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R317">
         <v>4</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17490,7 +17490,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R320">
         <v>20</v>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17778,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17969,7 +17969,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R330">
         <v>4</v>
@@ -18022,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R331">
         <v>17</v>
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R336">
         <v>14</v>
@@ -18316,7 +18316,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R337">
         <v>23</v>
@@ -18366,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18507,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18557,7 +18557,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R342">
         <v>14</v>
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18701,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18801,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R347">
         <v>27</v>
@@ -18851,7 +18851,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18901,7 +18901,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R349">
         <v>2</v>
@@ -18945,10 +18945,10 @@
         <v>1</v>
       </c>
       <c r="P350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19042,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19089,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19136,7 +19136,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19177,10 +19177,10 @@
         <v>1</v>
       </c>
       <c r="P355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19227,7 +19227,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19374,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R359">
         <v>17</v>
@@ -19424,7 +19424,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R361">
         <v>15</v>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19718,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R366">
         <v>10</v>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19818,7 +19818,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R368">
         <v>23</v>
@@ -19871,7 +19871,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19921,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R370">
         <v>15</v>
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20024,7 +20024,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R372">
         <v>8</v>
@@ -20077,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R373">
         <v>24</v>
@@ -20130,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R374">
         <v>13</v>
@@ -20183,7 +20183,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R375">
         <v>10</v>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20283,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20383,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R379">
         <v>26</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20533,7 +20533,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R382">
         <v>29</v>
@@ -20586,7 +20586,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R383">
         <v>4</v>
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20686,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R385">
         <v>24</v>
@@ -20739,7 +20739,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R387">
         <v>11</v>
@@ -20836,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20883,7 +20883,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20930,7 +20930,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21168,7 +21168,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R395">
         <v>30</v>
@@ -21218,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21268,7 +21268,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R397">
         <v>24</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21365,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21509,7 +21509,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R402">
         <v>18</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R404">
         <v>14</v>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21706,7 +21706,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R406">
         <v>19</v>
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21900,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21947,7 +21947,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21994,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22044,7 +22044,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R413">
         <v>15</v>
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22144,7 +22144,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R415">
         <v>22</v>
@@ -22197,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22247,7 +22247,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R417">
         <v>16</v>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22341,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22394,7 +22394,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R420">
         <v>16</v>
@@ -22444,7 +22444,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22494,7 +22494,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R422">
         <v>21</v>
@@ -22544,7 +22544,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22594,7 +22594,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R424">
         <v>4</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22697,7 +22697,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R426">
         <v>4</v>
@@ -22750,7 +22750,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R427">
         <v>19</v>
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22853,7 +22853,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R429">
         <v>15</v>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22953,7 +22953,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R431">
         <v>4</v>
@@ -23003,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23100,7 +23100,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R434">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R435">
         <v>16</v>
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23303,7 +23303,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R438">
         <v>41</v>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R440">
         <v>5</v>
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23550,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23600,7 +23600,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R444">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23844,7 +23844,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23891,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23941,7 +23941,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R451">
         <v>19</v>
@@ -23991,7 +23991,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24038,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24085,7 +24085,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24185,7 +24185,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R456">
         <v>28</v>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24335,7 +24335,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R459">
         <v>19</v>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24482,7 +24482,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R462">
         <v>0</v>
@@ -24535,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24585,7 +24585,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R464">
         <v>0</v>
@@ -24629,10 +24629,10 @@
         <v>1</v>
       </c>
       <c r="P465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q465">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="466" spans="1:17">
@@ -24673,7 +24673,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
